--- a/evaluation/results/sling.xlsx
+++ b/evaluation/results/sling.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovanni/Desktop/eval_smt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovanni/repository/automatic-error-detection/evaluation/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="sling" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>class</t>
   </si>
@@ -41,18 +41,6 @@
     <t>variable</t>
   </si>
   <si>
-    <t>org.apache.sling.commons.metrics.internal.MetricWebConsolePlugin</t>
-  </si>
-  <si>
-    <t>addTimerDetails</t>
-  </si>
-  <si>
-    <t>durationFactor</t>
-  </si>
-  <si>
-    <t>addHistogramDetails</t>
-  </si>
-  <si>
     <t>org.apache.sling.commons.testing.jcr.EventHelper</t>
   </si>
   <si>
@@ -177,15 +165,12 @@
   </si>
   <si>
     <t>bug</t>
-  </si>
-  <si>
-    <t>strage behaviour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -327,14 +312,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G43" totalsRowCount="1">
-  <autoFilter ref="A1:G42"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F23" totalsRowCount="1">
+  <autoFilter ref="A1:F22"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="class"/>
     <tableColumn id="2" name="method"/>
     <tableColumn id="3" name="line"/>
@@ -344,9 +332,6 @@
     </tableColumn>
     <tableColumn id="6" name="error" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Table1[error])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="7" name="strage behaviour" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table1[strage behaviour])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -616,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -627,10 +612,9 @@
     <col min="1" max="1" width="83" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -644,16 +628,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -661,707 +642,363 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>270</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
+        <v>208</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
         <v>271</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>272</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
         <v>273</v>
       </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>274</v>
-      </c>
       <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>276</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>277</v>
+        <v>183</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>278</v>
+        <v>546</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>279</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>280</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C12">
-        <v>334</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C13">
-        <v>335</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C14">
-        <v>336</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C15">
-        <v>337</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C16">
-        <v>338</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C17">
-        <v>340</v>
+        <v>146</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C18">
-        <v>341</v>
+        <v>291</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C19">
-        <v>342</v>
+        <v>292</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C20">
-        <v>343</v>
+        <v>132</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C21">
-        <v>344</v>
+        <v>292</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C22">
-        <v>74</v>
+        <v>293</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23">
-        <v>208</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24">
-        <v>88</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25">
-        <v>271</v>
-      </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26">
-        <v>273</v>
-      </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27">
-        <v>167</v>
-      </c>
-      <c r="D27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28">
-        <v>183</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29">
-        <v>546</v>
-      </c>
-      <c r="D29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30">
-        <v>96</v>
-      </c>
-      <c r="D30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31">
-        <v>124</v>
-      </c>
-      <c r="D31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32">
-        <v>39</v>
-      </c>
-      <c r="D32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33">
-        <v>54</v>
-      </c>
-      <c r="D33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34">
-        <v>97</v>
-      </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35">
-        <v>54</v>
-      </c>
-      <c r="D35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36">
-        <v>102</v>
-      </c>
-      <c r="D36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37">
-        <v>146</v>
-      </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38">
-        <v>291</v>
-      </c>
-      <c r="D38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39">
-        <v>292</v>
-      </c>
-      <c r="D39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40">
-        <v>132</v>
-      </c>
-      <c r="D40" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41">
-        <v>292</v>
-      </c>
-      <c r="D41" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42">
-        <v>293</v>
-      </c>
-      <c r="D42" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E43">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E23">
         <f>SUM(Table1[bug])</f>
         <v>20</v>
       </c>
-      <c r="F43">
+      <c r="F23">
         <f>SUM(Table1[error])</f>
         <v>1</v>
-      </c>
-      <c r="G43">
-        <f>SUM(Table1[strage behaviour])</f>
-        <v>20</v>
       </c>
     </row>
   </sheetData>
